--- a/BerteloSteen(Automation)/BOS_Config/DataTable.xlsx
+++ b/BerteloSteen(Automation)/BOS_Config/DataTable.xlsx
@@ -30,13 +30,13 @@
     <t>Password</t>
   </si>
   <si>
-    <t>https://login.microsoftonline.com/0abe8783-2c3e-4c42-9848-54e419bcdeb0/oauth2/v2.0/authorize?response_type=id_token&amp;scope=user.read%20openid%20profile&amp;client_id=08cad6e8-9985-4cad-810b-2dadf6fa42de&amp;redirect_uri=https%3A%2F%2Fwaqbolp01.azurewebsites.net%2F&amp;state=eyJpZCI6ImNkNzE0OTcxLWViY2EtNGJkYy04M2QyLTM3MWY2ODBiNmFhNiIsInRzIjoxNjEzMTM2Mzc4LCJtZXRob2QiOiJyZWRpcmVjdEludGVyYWN0aW9uIn0%3D&amp;nonce=16236db8-94fc-40bf-8bae-94a1b2cb096a&amp;client_info=1&amp;x-client-SKU=MSAL.JS&amp;x-client-Ver=1.3.2&amp;client-request-id=d04395d1-bd00-43cb-8e3a-d0fdf865ba32&amp;response_mode=fragment</t>
-  </si>
-  <si>
     <t>zedbxacp@bosbil.no</t>
   </si>
   <si>
     <t>6d96E333yjB88ut</t>
+  </si>
+  <si>
+    <t>https://waqbolp01.azurewebsites.net/</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,15 +409,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/BerteloSteen(Automation)/BOS_Config/DataTable.xlsx
+++ b/BerteloSteen(Automation)/BOS_Config/DataTable.xlsx
@@ -95,14 +95,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -392,31 +392,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="45.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
